--- a/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.137405640422951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.413856164751908</v>
+        <v>-1.413856164751909</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.04601289151428935</v>
@@ -649,7 +649,7 @@
         <v>1.041220275721074</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3915802596346032</v>
+        <v>-0.3915802596346035</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.750418748033678</v>
+        <v>-1.559550361191838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.483058981505716</v>
+        <v>-3.507939081477999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2347022256194574</v>
+        <v>-0.03160893932645196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.505267125467743</v>
+        <v>-3.561750568619631</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7545717170255243</v>
+        <v>-0.7084379893987911</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7172725035191748</v>
+        <v>-0.7020941450482268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02197815081713098</v>
+        <v>-0.1044338733718256</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7062435625214045</v>
+        <v>-0.7376481464035259</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.910828443346386</v>
+        <v>2.040506105352409</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.790428916449502</v>
+        <v>2.02920911473776</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.990996921064865</v>
+        <v>6.449407839041782</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4591491672433936</v>
+        <v>0.4552051257784456</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.207536277115855</v>
+        <v>2.67293316917236</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8334296912519685</v>
+        <v>1.083626026266314</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.888838113818737</v>
+        <v>3.26520998857016</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2381546145999131</v>
+        <v>0.1977502302313474</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.2148732732024885</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8238807309936563</v>
+        <v>0.8238807309936566</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.541019773849031</v>
+        <v>-2.844688563389808</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.655113501548861</v>
+        <v>-2.282126851271011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.065171562375846</v>
+        <v>-2.083686106063823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.739435487670742</v>
+        <v>-0.3966793209033047</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5532522241026359</v>
+        <v>-0.5846876458022775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4979889787706638</v>
+        <v>-0.439340008474398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4624368488304796</v>
+        <v>-0.4448152925518838</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2529375399723154</v>
+        <v>-0.2428887030308991</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.552699924116828</v>
+        <v>2.464708211520851</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.841621869015468</v>
+        <v>3.69103266945394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.632645512695797</v>
+        <v>3.335878991985878</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.517855581192706</v>
+        <v>4.425902529359147</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.283183854362916</v>
+        <v>1.239926573896473</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.442579366277395</v>
+        <v>1.262037855140833</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.498485163030901</v>
+        <v>1.516137245391909</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.167413160291396</v>
+        <v>2.974608164874975</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.605799603276951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.87587533124108</v>
+        <v>0.8758753312410806</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8446096398861813</v>
@@ -849,7 +849,7 @@
         <v>1.513515908480901</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2122998638424667</v>
+        <v>0.2122998638424669</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.150733987031685</v>
+        <v>-0.8223887515305204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.863843729817607</v>
+        <v>-1.844839536952671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.821722765815673</v>
+        <v>3.362113680824253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.32274535217164</v>
+        <v>-2.220442959224766</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3827991377649242</v>
+        <v>-0.2872290442267751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5252291478139309</v>
+        <v>-0.4790598919258343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.343230222346277</v>
+        <v>0.4686411179479192</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.445881667028482</v>
+        <v>-0.4340205086656888</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.204751220311982</v>
+        <v>7.395609120070182</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.818138716526402</v>
+        <v>3.809800871026014</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.9648457595444</v>
+        <v>15.7576035833288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.737014100711467</v>
+        <v>4.242334933196563</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.0560378879869</v>
+        <v>3.478075495027448</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.623827229619162</v>
+        <v>1.573849205378646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.28100842858754</v>
+        <v>3.453789995889694</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.310796045280461</v>
+        <v>1.395195510967072</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3393579746322779</v>
+        <v>-0.5156273795172077</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8136792958197417</v>
+        <v>0.8768139196174489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.273489832069905</v>
+        <v>2.143777273797462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2045994195554957</v>
+        <v>-0.132993774235117</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1074966989050966</v>
+        <v>-0.1435738996235265</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2322577390457015</v>
+        <v>0.2184218193994824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3757327575730038</v>
+        <v>0.3743472795672672</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.06430223259212031</v>
+        <v>-0.04875273917126008</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.195154064554298</v>
+        <v>3.351941868245326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.337450812451642</v>
+        <v>4.410750400742256</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.027111021916575</v>
+        <v>6.682612072905632</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.051242473117352</v>
+        <v>2.798988746294298</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.336180126647156</v>
+        <v>1.417410218637654</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.487777951185792</v>
+        <v>2.561396465526712</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.762598912535413</v>
+        <v>1.768077412647981</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.379142826382385</v>
+        <v>1.214205648500672</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.095004608152141</v>
+        <v>-0.5456133907731351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.54711824091926</v>
+        <v>0.3357488086708554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.273722895946273</v>
+        <v>7.636669393718952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.392143121585963</v>
+        <v>-0.3829646081333365</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2581088444598603</v>
+        <v>-0.1343376715065839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04703066890415455</v>
+        <v>0.04244888788455935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.02963742046569</v>
+        <v>1.078713041384931</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.07571892378236936</v>
+        <v>-0.0861344263885972</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.690010069395481</v>
+        <v>4.630680868823619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.193485899356983</v>
+        <v>5.03121559646512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.09384472915763</v>
+        <v>14.43305476808257</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.0866979854361</v>
+        <v>4.038308779030585</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.581822637522108</v>
+        <v>2.666890517671007</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.235979504289029</v>
+        <v>2.281215933460187</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3.452537894655594</v>
+        <v>3.53317556795264</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.330975139581601</v>
+        <v>1.343321055005181</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.757989084933802</v>
+        <v>1.626756136473058</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.055127001762766</v>
+        <v>1.163013922256021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.648404301197837</v>
+        <v>5.504370456544196</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7526298082123012</v>
+        <v>0.8721811164596454</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5161054744528406</v>
+        <v>0.4764692757492455</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2122574718079922</v>
+        <v>0.1529143828790928</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9460377685087543</v>
+        <v>0.8180146742939703</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05239224627623892</v>
+        <v>-0.2065824538032576</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.506227107550917</v>
+        <v>5.352853301524822</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.233946462026799</v>
+        <v>4.947160638197924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.73309227856239</v>
+        <v>11.46458624965324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.508166101550501</v>
+        <v>5.487830803165877</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>8.595214943032916</v>
+        <v>8.113092462208531</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.624124196694658</v>
+        <v>6.611204355439384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>6.45257726721159</v>
+        <v>5.796618366967061</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>14.9155947106451</v>
+        <v>14.06723279091368</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.904816403461393</v>
+        <v>0.9743084402530322</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9861536999357913</v>
+        <v>0.9697725821773371</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.183663413778586</v>
+        <v>5.194856593844454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5473540938583034</v>
+        <v>0.4810813635614137</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2808442432057505</v>
+        <v>0.312025678975685</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2893184811613075</v>
+        <v>0.2692502292997694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9899825625801445</v>
+        <v>1.021225328432946</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.138750560984107</v>
+        <v>0.1226406509595298</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.72556284336118</v>
+        <v>2.701956584762402</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.886846347089004</v>
+        <v>2.92106724872414</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.894679234577101</v>
+        <v>7.79094937779564</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.245220066385483</v>
+        <v>2.251706784793344</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.125174772045171</v>
+        <v>1.133956760590618</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.099778016559552</v>
+        <v>1.131921504091774</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.948588702249199</v>
+        <v>1.971805908265339</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7841832323249991</v>
+        <v>0.7784611320476389</v>
       </c>
     </row>
     <row r="25">
